--- a/ЗАВОДЫ/СИТРЕЙД (НОРД)/2025/08,25/15,08,25 НОРД/дв 15,08,25 млрсч норд.xlsx
+++ b/ЗАВОДЫ/СИТРЕЙД (НОРД)/2025/08,25/15,08,25 НОРД/дв 15,08,25 млрсч норд.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\15,08,25 НОРД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\СИТРЕЙД (НОРД)\2025\08,25\15,08,25 НОРД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE391118-3EE7-4DF3-AF12-0D92C83A5067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E8C296-3763-41F4-BAF4-24E58B812447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
         <v>38</v>
       </c>
       <c r="AI6" s="1">
-        <f>G6*S6</f>
+        <f t="shared" ref="AI6:AI17" si="3">G6*S6</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="1"/>
@@ -1275,18 +1275,18 @@
         <v>205</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7:R17" si="3">E7/5</f>
+        <f t="shared" ref="R7:R17" si="4">E7/5</f>
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="e">
-        <f t="shared" ref="V7:V17" si="4">(F7+O7+S7)/R7</f>
+        <f t="shared" ref="V7:V17" si="5">(F7+O7+S7)/R7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W7" s="1" t="e">
-        <f t="shared" ref="W7:W17" si="5">(F7+O7)/R7</f>
+        <f t="shared" ref="W7:W17" si="6">(F7+O7)/R7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X7" s="1">
@@ -1323,7 +1323,7 @@
         <v>40</v>
       </c>
       <c r="AI7" s="1">
-        <f>G7*S7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="1"/>
@@ -1384,20 +1384,20 @@
         <v>715</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="W8" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
+      <c r="W8" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="X8" s="1">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1">
-        <f>G8*S8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="1"/>
@@ -1491,20 +1491,20 @@
         <v>205</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.66</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <f t="shared" si="4"/>
-        <v>13.144611186903138</v>
-      </c>
-      <c r="W9" s="1">
         <f t="shared" si="5"/>
         <v>13.144611186903138</v>
       </c>
+      <c r="W9" s="1">
+        <f t="shared" si="6"/>
+        <v>13.144611186903138</v>
+      </c>
       <c r="X9" s="1">
         <v>0</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>43</v>
       </c>
       <c r="AI9" s="1">
-        <f>G9*S9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="1"/>
@@ -1594,20 +1594,20 @@
         <v>385</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W10" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="AI10" s="1">
-        <f>G10*S10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="1"/>
@@ -1695,20 +1695,20 @@
         <v>55</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W11" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
-        <f>G11*S11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1"/>
@@ -1794,20 +1794,20 @@
         <v>205</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W12" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X12" s="1">
         <v>0</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="AI12" s="1">
-        <f>G12*S12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1"/>
@@ -1895,20 +1895,20 @@
         <v>155</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W13" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>40</v>
       </c>
       <c r="AI13" s="1">
-        <f>G13*S13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="1"/>
@@ -2004,20 +2004,20 @@
         <v>240</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <f t="shared" si="4"/>
-        <v>19.193548387096772</v>
-      </c>
-      <c r="W14" s="1">
         <f t="shared" si="5"/>
         <v>19.193548387096772</v>
       </c>
+      <c r="W14" s="1">
+        <f t="shared" si="6"/>
+        <v>19.193548387096772</v>
+      </c>
       <c r="X14" s="1">
         <v>6</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>57</v>
       </c>
       <c r="AI14" s="1">
-        <f>G14*S14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -2105,20 +2105,20 @@
         <v>55</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W15" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X15" s="1">
         <v>8</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
-        <f>G15*S15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="1"/>
@@ -2214,21 +2214,21 @@
         <v>250</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" ref="S7:S17" si="6">15*R16-O16-F16</f>
+        <f t="shared" ref="S16" si="7">15*R16-O16-F16</f>
         <v>139</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="X16" s="1">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <f>G16*S16</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -2320,20 +2320,20 @@
         <v>705</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W17" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="W17" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X17" s="1">
         <v>0</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="AI17" s="1">
-        <f>G17*S17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="1"/>
